--- a/플랫포머/Maybe수식.xlsx
+++ b/플랫포머/Maybe수식.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B9C953-4C73-46DA-9E82-B01DBE0646D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7961CD-0278-49CB-8059-66832633858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="스킬 데미지" sheetId="9" r:id="rId9"/>
     <sheet name="몬스터" sheetId="10" r:id="rId10"/>
     <sheet name="경제" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>humanvirus2 humanvirus2</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{CA035BE9-6FDE-4B47-B409-CF77DB065E03}">
+      <text>
+        <t xml:space="preserve">humanvirus2 humanvirus2:
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
   <si>
     <t>아이템</t>
   </si>
@@ -381,13 +398,160 @@
   </si>
   <si>
     <t>행운의 상자</t>
+  </si>
+  <si>
+    <t>Ingame Store</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Imege</t>
+  </si>
+  <si>
+    <t>salePrice</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>식별번호</t>
+  </si>
+  <si>
+    <t>아이템명</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>보유가능수</t>
+  </si>
+  <si>
+    <t>1구매당 사용횟수</t>
+  </si>
+  <si>
+    <t>판매가격</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>주인공이 3초동안 +10%속도를 가진다</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10초동안 플레이어의 점프력 10상승 </t>
+  </si>
+  <si>
+    <t>플레이어가 더블점프가 가능해진다.</t>
+  </si>
+  <si>
+    <t>50%센트의 확률로 200피해를줌
+(30%확률로 데미지입음)</t>
+  </si>
+  <si>
+    <t>50%확률 200데미지줌
+50%확률 80피해받음</t>
+  </si>
+  <si>
+    <t>10의 데미지</t>
+  </si>
+  <si>
+    <t>100데미지</t>
+  </si>
+  <si>
+    <t>20데미지+5초간5지속 데미지</t>
+  </si>
+  <si>
+    <t>20데미지+5초간6지속 데미지</t>
+  </si>
+  <si>
+    <t>전기타입 10초무력화</t>
+  </si>
+  <si>
+    <t>랜덤으로 소비아이템이 뜬다</t>
+  </si>
+  <si>
+    <t>클로버</t>
+  </si>
+  <si>
+    <t>시전자의 행운을 11%증가시킨다</t>
+  </si>
+  <si>
+    <t>100의 데미지를 준다(10%의 확률로 추가화상데미지)
+20%확률로 자신이 화상데미지를 입는다</t>
+  </si>
+  <si>
+    <t>낡은 권총</t>
+  </si>
+  <si>
+    <t>100의 데미지를 준다.(30%센트 확률로 총기가 부서진다)</t>
+  </si>
+  <si>
+    <t>권총</t>
+  </si>
+  <si>
+    <t>100의 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>활</t>
+  </si>
+  <si>
+    <t>타격으로쓰면 잘 부러진다.</t>
+  </si>
+  <si>
+    <t>화살</t>
+  </si>
+  <si>
+    <t>50의 데미지를 준다(활이 있어야만 사용가능)</t>
+  </si>
+  <si>
+    <t>카드</t>
+  </si>
+  <si>
+    <t>3스테이지 진입시 필요하다</t>
+  </si>
+  <si>
+    <t>기관총</t>
+  </si>
+  <si>
+    <t>500의 데미지를 5초간나눠서 준다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000\-000"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +597,22 @@
       <color rgb="FFFFFFFF"/>
       <name val="굴림"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +637,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -637,11 +821,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -668,10 +924,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -718,16 +970,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -737,21 +982,207 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5059,6 +5490,24 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{897398F9-BA00-41B1-B782-4784B11194F7}" name="표2" displayName="표2" ref="A3:I25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A3:I25" xr:uid="{897398F9-BA00-41B1-B782-4784B11194F7}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{EF6D337B-9236-4B9B-8D65-A868A339ED26}" name="제목"/>
+    <tableColumn id="2" xr3:uid="{DC3D9343-7067-427E-8C09-2BFD57489E39}" name="ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CE5F8C80-2DA0-47A9-8CD9-0B1ABB9A48E5}" name="Name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DB59FAFE-0D80-4F77-BF73-F4A4E0C512B4}" name="Description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D7DB6544-8FFE-4B49-9CD2-F3BAEA8535D6}" name="Number" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{93DCFA5D-E1C1-45AD-8C31-676BA178C5FF}" name="Price" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B533EC28-A3DD-45B9-B678-A922C8ECB8A1}" name="Count" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6F1546F3-C24F-4B41-B71E-9F83B22AA841}" name="Imege" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{9881D08D-D7BA-40A2-B1B1-B81F1938E616}" name="salePrice"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6121,19 +6570,19 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="2">
@@ -6158,19 +6607,19 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="1">
         <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="2">
@@ -6195,19 +6644,19 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="2">
         <v>130</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="1">
         <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="2">
@@ -6232,19 +6681,19 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="2">
         <v>150</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="1">
         <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="2">
@@ -6269,19 +6718,19 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="2">
         <v>300</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="1">
         <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="F6" s="2">
@@ -6306,19 +6755,19 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="3">
         <v>500</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>100</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>30</v>
       </c>
       <c r="F7" s="3">
@@ -6343,7 +6792,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="11"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6885,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8260DA1-D19B-4E0A-A8A3-AAAA6EF88A36}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6900,866 +7349,866 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
     </row>
     <row r="2" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
     </row>
     <row r="3" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="R5" s="35" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="R5" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>98</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="U6" s="46" t="s">
+      <c r="U6" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
     </row>
     <row r="7" spans="1:34">
       <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="1">
         <v>50</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="1">
         <f>K7/2</f>
         <v>25</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <v>40</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="31">
         <v>1</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="36">
         <v>1</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="28">
         <v>1</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="36">
         <v>1</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
     </row>
     <row r="8" spans="1:34">
       <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="1">
         <v>50</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="1">
         <f t="shared" ref="L8:L18" si="0">K8/2</f>
         <v>25</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <v>30</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="31">
         <v>2</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="36">
         <v>200</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="28">
         <v>1</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="36">
         <f>S8*T8</f>
         <v>200</v>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
     </row>
     <row r="9" spans="1:34">
       <c r="I9" s="9">
         <v>3</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="1">
         <v>50</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="19">
         <v>30</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="31">
         <v>3</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="36">
         <v>597</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="28">
         <v>1</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="36">
         <f t="shared" ref="U9:U17" si="1">S9*T9</f>
         <v>597</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
     </row>
     <row r="10" spans="1:34">
       <c r="I10" s="9">
         <v>4</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="1">
         <v>100</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="19">
         <v>10</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="31">
         <v>4</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="36">
         <v>753</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="28">
         <v>1</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="36">
         <f t="shared" si="1"/>
         <v>753</v>
       </c>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
     </row>
     <row r="11" spans="1:34">
       <c r="I11" s="9">
         <v>5</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="1">
         <v>46</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="19">
         <v>10</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="31">
         <v>5</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="36">
         <v>874</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="28">
         <v>2</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="36">
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
     </row>
     <row r="12" spans="1:34">
       <c r="I12" s="9">
         <v>6</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="1">
         <v>40</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <v>10</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="31">
         <v>6</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="36">
         <v>973</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="28">
         <v>2</v>
       </c>
-      <c r="U12" s="43">
+      <c r="U12" s="36">
         <f t="shared" si="1"/>
         <v>1946</v>
       </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
     </row>
     <row r="13" spans="1:34">
       <c r="I13" s="9">
         <v>7</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="1">
         <v>10</v>
       </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="21">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
         <v>10</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="31">
         <v>7</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="36">
         <v>1057</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="28">
         <v>2</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="36">
         <f t="shared" si="1"/>
         <v>2114</v>
       </c>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
     </row>
     <row r="14" spans="1:34">
       <c r="I14" s="9">
         <v>8</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="1">
         <v>20</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="19">
         <v>20</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="31">
         <v>8</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="36">
         <v>1129</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="28">
         <v>1</v>
       </c>
-      <c r="U14" s="43">
+      <c r="U14" s="36">
         <f t="shared" si="1"/>
         <v>1129</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
     </row>
     <row r="15" spans="1:34">
       <c r="I15" s="9">
         <v>9</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="1">
         <v>20</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="19">
         <v>20</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="31">
         <v>9</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="36">
         <v>1193</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="28">
         <v>2</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="36">
         <f t="shared" si="1"/>
         <v>2386</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
     </row>
     <row r="16" spans="1:34">
       <c r="I16" s="9">
         <v>10</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="1">
         <v>20</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="19">
         <v>20</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="31">
         <v>10</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="36">
         <v>1251</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="28">
         <v>3</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="36">
         <f t="shared" si="1"/>
         <v>3753</v>
       </c>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
     </row>
     <row r="17" spans="9:32">
       <c r="I17" s="9">
         <v>11</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="1">
         <v>30</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>20</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="32">
         <v>11</v>
       </c>
-      <c r="S17" s="42">
+      <c r="S17" s="37">
         <v>1302</v>
       </c>
-      <c r="T17" s="38">
+      <c r="T17" s="33">
         <v>2</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="37">
         <f t="shared" si="1"/>
         <v>2604</v>
       </c>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
     </row>
     <row r="18" spans="9:32">
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>12</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <v>40</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M18" s="22"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
     </row>
     <row r="19" spans="9:32">
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
     </row>
     <row r="20" spans="9:32">
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
     </row>
     <row r="21" spans="9:32">
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
     </row>
     <row r="22" spans="9:32">
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
     </row>
     <row r="23" spans="9:32">
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
     </row>
     <row r="24" spans="9:32">
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
     </row>
     <row r="25" spans="9:32">
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="9:32">
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
     </row>
     <row r="27" spans="9:32">
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="9:32">
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
     </row>
     <row r="29" spans="9:32">
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
     </row>
     <row r="30" spans="9:32">
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
     </row>
     <row r="31" spans="9:32">
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="9:32">
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
     </row>
     <row r="33" spans="23:32">
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="23:32">
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7769,6 +8218,757 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970E585F-14F5-4DB7-A5DD-38C97DD991D4}">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="56">
+        <v>3</v>
+      </c>
+      <c r="F6" s="54">
+        <v>50</v>
+      </c>
+      <c r="G6" s="56">
+        <v>1</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="56">
+        <v>3</v>
+      </c>
+      <c r="F7" s="54">
+        <v>50</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="56">
+        <v>3</v>
+      </c>
+      <c r="F8" s="54">
+        <v>50</v>
+      </c>
+      <c r="G8" s="56">
+        <v>1</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="56">
+        <v>1</v>
+      </c>
+      <c r="F9" s="54">
+        <v>100</v>
+      </c>
+      <c r="G9" s="56">
+        <v>0</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="33">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="56">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54">
+        <v>100</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="33">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1</v>
+      </c>
+      <c r="F11" s="54">
+        <v>100</v>
+      </c>
+      <c r="G11" s="56">
+        <v>1</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1007</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="56">
+        <v>5</v>
+      </c>
+      <c r="F12" s="54">
+        <v>10</v>
+      </c>
+      <c r="G12" s="56">
+        <v>1</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1008</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="56">
+        <v>3</v>
+      </c>
+      <c r="F13" s="54">
+        <v>100</v>
+      </c>
+      <c r="G13" s="56">
+        <v>1</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1009</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="56">
+        <v>3</v>
+      </c>
+      <c r="F14" s="54">
+        <v>200</v>
+      </c>
+      <c r="G14" s="56">
+        <v>1</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1010</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="56">
+        <v>3</v>
+      </c>
+      <c r="F15" s="54">
+        <v>200</v>
+      </c>
+      <c r="G15" s="56">
+        <v>1</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="44">
+        <v>1011</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="56">
+        <v>2</v>
+      </c>
+      <c r="F16" s="54">
+        <v>300</v>
+      </c>
+      <c r="G16" s="56">
+        <v>1</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="44">
+        <v>1012</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="56">
+        <v>1</v>
+      </c>
+      <c r="F17" s="54">
+        <v>100</v>
+      </c>
+      <c r="G17" s="56">
+        <v>1</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="44">
+        <v>1013</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="56">
+        <v>2</v>
+      </c>
+      <c r="F18" s="54">
+        <v>50</v>
+      </c>
+      <c r="G18" s="56">
+        <v>1</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="44">
+        <v>1014</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="56">
+        <v>1</v>
+      </c>
+      <c r="F19" s="54">
+        <v>1200</v>
+      </c>
+      <c r="G19" s="56">
+        <v>3</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="45">
+        <v>1015</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="56">
+        <v>1</v>
+      </c>
+      <c r="F20" s="54">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="56">
+        <v>10</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="45">
+        <v>1016</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="56">
+        <v>1</v>
+      </c>
+      <c r="F21" s="54">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="56">
+        <v>0</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="45">
+        <v>1017</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="56">
+        <v>1</v>
+      </c>
+      <c r="F22" s="54">
+        <v>2000</v>
+      </c>
+      <c r="G22" s="56">
+        <v>0</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="45">
+        <v>1018</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="56">
+        <v>10</v>
+      </c>
+      <c r="F23" s="54">
+        <v>10</v>
+      </c>
+      <c r="G23" s="56">
+        <v>1</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="45">
+        <v>1019</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="56">
+        <v>1</v>
+      </c>
+      <c r="F24" s="54">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="56">
+        <v>0</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="57">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60">
+        <v>1020</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="56">
+        <v>1</v>
+      </c>
+      <c r="F25" s="54">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="56">
+        <v>3</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="57">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -7802,7 +9002,7 @@
       <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -7819,25 +9019,25 @@
       <c r="A2" s="9">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
         <f>SUM(-A2+B2+F2+G2)</f>
         <v>0</v>
       </c>
@@ -7846,25 +9046,25 @@
       <c r="A3" s="9">
         <v>10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H12" si="0">SUM(-A3+B3+F3+G3)</f>
         <v>-2</v>
       </c>
@@ -7873,25 +9073,25 @@
       <c r="A4" s="9">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
@@ -7900,25 +9100,25 @@
       <c r="A5" s="9">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
@@ -7927,25 +9127,25 @@
       <c r="A6" s="9">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
@@ -7954,25 +9154,25 @@
       <c r="A7" s="9">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
@@ -7981,25 +9181,25 @@
       <c r="A8" s="9">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -8008,25 +9208,25 @@
       <c r="A9" s="9">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8035,25 +9235,25 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -8062,52 +9262,52 @@
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>3</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
@@ -8148,7 +9348,7 @@
       <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -8165,25 +9365,25 @@
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
         <f>SUM(-A2+B2+F2+G2)</f>
         <v>10</v>
       </c>
@@ -8192,25 +9392,25 @@
       <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H12" si="0">SUM(-A3+B3+F3+G3)</f>
         <v>8</v>
       </c>
@@ -8219,25 +9419,25 @@
       <c r="A4" s="9">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8246,25 +9446,25 @@
       <c r="A5" s="9">
         <v>0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8273,25 +9473,25 @@
       <c r="A6" s="9">
         <v>0</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8300,25 +9500,25 @@
       <c r="A7" s="9">
         <v>0</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8327,25 +9527,25 @@
       <c r="A8" s="9">
         <v>0</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -8354,25 +9554,25 @@
       <c r="A9" s="9">
         <v>0</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -8381,25 +9581,25 @@
       <c r="A10" s="9">
         <v>0</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -8408,52 +9608,52 @@
       <c r="A11" s="9">
         <v>0</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="11">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>3</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -8493,7 +9693,7 @@
       <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -8510,25 +9710,25 @@
       <c r="A2" s="9">
         <v>-10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
         <f>SUM(-A2+B2+F2+G2)</f>
         <v>20</v>
       </c>
@@ -8537,25 +9737,25 @@
       <c r="A3" s="9">
         <v>-10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H12" si="0">SUM(-A3+B3+F3+G3)</f>
         <v>18</v>
       </c>
@@ -8564,25 +9764,25 @@
       <c r="A4" s="9">
         <v>-10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -8591,25 +9791,25 @@
       <c r="A5" s="9">
         <v>-10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -8618,25 +9818,25 @@
       <c r="A6" s="9">
         <v>-10</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -8645,25 +9845,25 @@
       <c r="A7" s="9">
         <v>-10</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -8672,25 +9872,25 @@
       <c r="A8" s="9">
         <v>-10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -8699,25 +9899,25 @@
       <c r="A9" s="9">
         <v>-10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -8726,25 +9926,25 @@
       <c r="A10" s="9">
         <v>-10</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -8753,52 +9953,52 @@
       <c r="A11" s="9">
         <v>-10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>-10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>3</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -8851,22 +10051,22 @@
       <c r="A2" s="9">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
         <f>SUM(-A2+B2+E2+F2)</f>
         <v>12</v>
       </c>
@@ -8875,22 +10075,22 @@
       <c r="A3" s="9">
         <v>10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>18</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G19" si="0">SUM(-A3+B3+E3+F3)</f>
         <v>10</v>
       </c>
@@ -8899,22 +10099,22 @@
       <c r="A4" s="9">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>16</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -8923,22 +10123,22 @@
       <c r="A5" s="9">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -8947,22 +10147,22 @@
       <c r="A6" s="9">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -8971,22 +10171,22 @@
       <c r="A7" s="9">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -8995,22 +10195,22 @@
       <c r="A8" s="9">
         <v>10</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -9019,22 +10219,22 @@
       <c r="A9" s="9">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -9043,22 +10243,22 @@
       <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -9067,22 +10267,22 @@
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>14</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -9091,22 +10291,22 @@
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -9115,22 +10315,22 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>-6</v>
       </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
@@ -9139,22 +10339,22 @@
       <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>20</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>-6</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -9163,22 +10363,22 @@
       <c r="A15" s="9">
         <v>10</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>-6</v>
       </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -9187,22 +10387,22 @@
       <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>16</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>-6</v>
       </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9211,22 +10411,22 @@
       <c r="A17" s="9">
         <v>10</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>-6</v>
       </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -9235,46 +10435,46 @@
       <c r="A18" s="9">
         <v>10</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>-6</v>
       </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>10</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>10</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
         <v>-6</v>
       </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
@@ -9331,27 +10531,27 @@
       <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2">
         <f>A2/D2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2">
         <f>(C2+A2)-B2-E2</f>
         <v>-8</v>
       </c>
-      <c r="H2" s="12" t="b">
+      <c r="H2" s="10" t="b">
         <f>$G2&gt;0="2"</f>
         <v>0</v>
       </c>
@@ -9360,27 +10560,27 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>-10</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <f t="shared" ref="F3:F5" si="0">A3/D3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3">
         <f t="shared" ref="G3:H5" si="1">(C3+A3)-B3-E3</f>
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="b">
+      <c r="H3" s="10" t="b">
         <f t="shared" ref="H3:H5" si="2">$G3&gt;0="2"</f>
         <v>0</v>
       </c>
@@ -9389,56 +10589,56 @@
       <c r="A4" s="9">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="b">
+      <c r="H4" s="10" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>-10</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>10</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>10</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="b">
+      <c r="H5" s="14" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9452,9 +10652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838FC3D7-41EA-472F-99E1-71978F51ACBD}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -9488,19 +10686,19 @@
       <c r="A2" s="9">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
         <f>B2+D2-C2-A2+E2</f>
         <v>0</v>
       </c>
@@ -9509,19 +10707,19 @@
       <c r="A3" s="9">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F11" si="0">B3+D3-C3-A3+E3</f>
         <v>2</v>
       </c>
@@ -9530,19 +10728,19 @@
       <c r="A4" s="9">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -9551,19 +10749,19 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -9572,19 +10770,19 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -9593,19 +10791,19 @@
       <c r="A7" s="9">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
         <v>-10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -9614,19 +10812,19 @@
       <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8">
         <v>-10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -9635,19 +10833,19 @@
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9">
         <v>-10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -9656,40 +10854,40 @@
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>-10</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>20</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>-10</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -9735,16 +10933,16 @@
       <c r="A2" s="9">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <f>SUM(A2+B2)</f>
         <v>15</v>
       </c>
@@ -9753,16 +10951,16 @@
       <c r="A3" s="9">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E6" si="0">SUM(A3+B3)</f>
         <v>13</v>
       </c>
@@ -9771,16 +10969,16 @@
       <c r="A4" s="9">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -9789,34 +10987,34 @@
       <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -9831,7 +11029,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9900,41 +11098,41 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>10</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>100</v>
       </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
         <v>1</v>
       </c>
-      <c r="G2" s="23">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="G2" s="21">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
         <v>0.5</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="21">
         <f>B2+E2+G2</f>
         <v>10</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="21">
         <f>C2-K2</f>
         <v>90</v>
       </c>
@@ -9951,42 +11149,42 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <f>C3/2</f>
         <v>50</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>100</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <f t="shared" ref="K3:K14" si="0">B3+E3+G3</f>
         <v>50</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <f t="shared" ref="L3:L14" si="1">C3-K3</f>
         <v>50</v>
       </c>
@@ -10003,41 +11201,41 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>7</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>100</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>5</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
         <v>0.8</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <v>1</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="21">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
@@ -10054,41 +11252,41 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>10</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>100</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>20</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>50</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>0.3</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="21">
         <v>6</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -10105,41 +11303,41 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>10</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>100</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>20</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>100</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>10</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="21">
         <v>1</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <f>B6+E6</f>
         <v>110</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="21">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
@@ -10156,41 +11354,41 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>100</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>40</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>30</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>8</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>10</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="21">
         <v>2</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -10207,41 +11405,41 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>10</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>100</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>10</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>20</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>8</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>0.3</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>10</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -10258,27 +11456,27 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="25"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -10288,41 +11486,41 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>100</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>100</v>
       </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
         <v>3</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="21">
         <v>1</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="21">
         <f>B10+E10+10</f>
         <v>110</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="21">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
@@ -10339,41 +11537,41 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>5</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>100</v>
       </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
         <v>10</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>3</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <v>5</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <v>1</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="21">
         <v>1</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="21">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -10390,41 +11588,41 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>100</v>
       </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
         <v>15</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>10</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>1</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <v>1</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -10441,41 +11639,41 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>5</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="21">
         <v>100</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>3</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
         <v>1.2</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="21">
         <v>1</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="21">
         <f>B13</f>
         <v>5</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="21">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -10492,40 +11690,40 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>5</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <v>100</v>
       </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
         <v>3</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>0.8</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>1</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>5</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -10542,15 +11740,15 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29">
+      <c r="A15" s="25"/>
+      <c r="B15" s="27">
         <v>10</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>100</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
